--- a/data/long_dif/P24_5-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_5-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>29,81%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31,64%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21,7%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>26,4%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>26,12%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>31,09%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,91; 30,05</t>
+          <t>17,87; 27,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,1; 27,28</t>
+          <t>17,79; 29,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 28,17</t>
+          <t>19,21; 27,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,29; 30,27</t>
+          <t>17,21; 28,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,32; 25,61</t>
+          <t>25,32; 37,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,02; 32,65</t>
+          <t>22,45; 29,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,94; 28,62</t>
+          <t>18,3; 25,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,65; 24,96</t>
+          <t>25,5; 32,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,44; 29,01</t>
+          <t>25,31; 34,86</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26,99; 36,73</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21,5; 27,38</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18,9; 25,55</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 29,14</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22,49; 29,95</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>27,3; 35,54</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>57,91%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>55,46%</t>
+          <t>55,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,07%</t>
+          <t>51,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,42%</t>
+          <t>53,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>42,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>47,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>51,75%</t>
+          <t>42,96%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40,33%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>56,02%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49,81%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>51,7%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>46,92%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>44,34%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,2; 62,23</t>
+          <t>53,63; 64,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,6; 63,23</t>
+          <t>51,67; 63,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,35; 60,89</t>
+          <t>51,18; 60,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,7; 57,87</t>
+          <t>42,46; 57,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,01; 47,51</t>
+          <t>42,82; 55,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,39; 53,39</t>
+          <t>48,76; 57,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,56; 58,76</t>
+          <t>38,46; 47,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,12; 53,73</t>
+          <t>43,92; 51,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48,62; 55,42</t>
+          <t>38,11; 48,09</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35,34; 45,04</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>52,44; 59,49</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>46,14; 53,53</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>48,6; 55,27</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>42,3; 51,19</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>40,35; 48,81</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>27,23%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28,03%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19,66%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28,5%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>21,91%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>26,95%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>24,57%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,5; 23,46</t>
+          <t>14,8; 22,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 25,15</t>
+          <t>16,15; 24,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,22; 26,78</t>
+          <t>16,93; 25,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 24,37</t>
+          <t>20,06; 38,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,81; 40,63</t>
+          <t>16,35; 27,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,38; 26,31</t>
+          <t>17,18; 24,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 22,6</t>
+          <t>31,61; 40,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,43; 31,83</t>
+          <t>19,61; 26,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,38; 25,29</t>
+          <t>22,63; 31,89</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>23,87; 32,66</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,37; 22,72</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25,34; 31,55</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>19,48; 24,85</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>23,19; 33,05</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>21,38; 28,14</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 23,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,82; 21,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,28; 25,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 30,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,55; 27,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 30,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,27; 25,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,74; 23,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,72; 26,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>64,96%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>56,21%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>49,52%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>49,94%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>50,74%</t>
+          <t>30,05%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23,17%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>29,56%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>21,88%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59,03; 70,93</t>
+          <t>16,34; 25,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,2; 62,78</t>
+          <t>10,33; 20,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,96; 61,75</t>
+          <t>16,61; 24,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,9; 54,71</t>
+          <t>23,09; 36,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,69; 49,35</t>
+          <t>13,26; 30,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,58; 49,42</t>
+          <t>21,33; 30,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>53,32; 61,2</t>
+          <t>18,55; 28,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,53; 54,08</t>
+          <t>21,83; 30,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,34; 54,68</t>
+          <t>25,3; 35,07</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14,97; 32,14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20,01; 26,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15,6; 22,53</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>20,58; 26,58</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>25,71; 33,92</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>16,18; 28,83</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>63,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>57,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>49,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>54,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>43,51%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>42,02%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56,16%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>50,68%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>50,55%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>46,49%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>48,77%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,91; 21,11</t>
+          <t>58,59; 69,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,91; 36,46</t>
+          <t>50,63; 63,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,2; 27,48</t>
+          <t>50,7; 61,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,74; 29,91</t>
+          <t>42,13; 55,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,34; 38,66</t>
+          <t>43,97; 68,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,67; 32,71</t>
+          <t>43,57; 53,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,62; 23,77</t>
+          <t>38,5; 48,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,6; 35,65</t>
+          <t>40,01; 49,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,51; 29,34</t>
+          <t>37,99; 49,59</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>32,02; 52,1</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>52,27; 60,28</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>46,48; 54,94</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>46,67; 53,96</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>42,15; 50,92</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>40,73; 57,73</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>33,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>26,43%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>35,17%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20,67%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>30,37%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>26,07%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,8; 44,2</t>
+          <t>11,74; 20,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 22,93</t>
+          <t>22,4; 35,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,65; 29,34</t>
+          <t>18,55; 29,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,42; 43,36</t>
+          <t>16,25; 27,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,57; 32,22</t>
+          <t>15,24; 33,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,09; 36,24</t>
+          <t>21,5; 31,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,9; 38,35</t>
+          <t>28,83; 38,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,57; 25,58</t>
+          <t>25,23; 33,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,12; 29,81</t>
+          <t>21,6; 31,26</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>26,32; 45,56</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>17,63; 24,04</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>26,82; 34,47</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>23,05; 30,06</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>20,46; 27,56</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>22,98; 36,82</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>63,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>60,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>62,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>46,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>51,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>51,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>54,39%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>46,76; 74,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>49,42; 72,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>51,87; 71,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,21; 47,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,98; 51,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,36; 55,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,99; 59,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,63; 59,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>46,76; 60,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>18,25%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>28,35%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>18,93%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>23,67%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>25,38%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,71; 21,33</t>
+          <t>15,15; 47,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,39; 35,87</t>
+          <t>8,45; 25,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,36; 29,76</t>
+          <t>12,39; 28,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,2; 39,81</t>
+          <t>18,32; 55,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,67; 45,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,17; 35,39</t>
+          <t>21,92; 39,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,19; 28,12</t>
+          <t>15,45; 32,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>23,68; 37,82</t>
+          <t>19,65; 35,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,94; 29,75</t>
+          <t>11,18; 27,32</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>21,65; 39,31</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 25,34</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>18,53; 29,69</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>17,83; 42,75</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>58,48%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>60,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>62,31%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>46,18%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>57,55%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>49,43%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>50,94%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>54,3%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>52,44%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>18,61; 26,21</t>
+          <t>41,41; 69,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>15,15; 21,55</t>
+          <t>49,3; 73,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19,28; 24,77</t>
+          <t>49,9; 71,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,7; 29,45</t>
+          <t>30,01; 63,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>19,67; 25,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>24,94; 30,15</t>
+          <t>31,26; 49,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>22,07; 26,74</t>
+          <t>31,11; 50,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>18,18; 22,53</t>
+          <t>37,03; 55,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,06; 26,77</t>
+          <t>47,34; 67,66</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>40,79; 56,37</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>43,45; 59,37</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>47,3; 61,37</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>41,01; 61,95</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>57,58%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>56,68%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>46,9%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>55,45%</t>
+          <t>36,27%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>51,67%</t>
+          <t>24,19%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>22,22%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>30,12%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>22,02%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>22,18%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>56,54; 64,94</t>
+          <t>8,48; 25,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>53,68; 61,56</t>
+          <t>14,89; 34,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>53,03; 60,09</t>
+          <t>11,19; 31,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>46,72; 53,34</t>
+          <t>10,52; 33,74</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>39,6; 46,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>44,24; 50,01</t>
+          <t>21,42; 37,97</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>52,71; 58,14</t>
+          <t>27,59; 47,28</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>47,11; 52,38</t>
+          <t>19,34; 35,47</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>49,09; 53,95</t>
+          <t>16,5; 32,87</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>16,6; 28,23</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>23,43; 37,25</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>16,8; 29,93</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>15,4; 30,74</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,765 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,33; 28,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18,37; 24,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,94; 26,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>32,05; 38,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,0; 28,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,32; 22,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>27,43; 32,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>21,33; 25,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>22,21%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>21,91%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>26,13%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>28,24%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>26,38%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>27,75%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>28,58%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>29,77%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>20,29%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>27,38%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>29,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>19,0; 25,94</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>15,39; 22,38</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>19,21; 24,85</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>21,85; 31,36</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 33,5</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>23,77; 29,11</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>19,51; 25,08</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>25,36; 30,35</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>25,67; 32,23</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>25,52; 34,68</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>22,44; 26,89</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>18,11; 22,69</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>23,09; 27,09</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>24,49; 30,2</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>25,73; 32,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>60,85%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>58,13%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>56,78%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>50,09%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>50,04%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>49,99%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>42,83%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>46,58%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>44,84%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>55,3%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>50,29%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>51,56%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>45,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>57,07; 64,43</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>54,03; 62,1</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>52,96; 60,13</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>44,54; 54,56</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>44,4; 55,85</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>46,9; 52,99</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>39,62; 46,11</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>43,86; 49,48</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>41,57; 48,4</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>36,21; 45,45</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>52,7; 57,45</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>47,73; 52,86</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>49,14; 53,75</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>44,58; 50,18</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>41,91; 49,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>16,95%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>23,52%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>21,32%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>23,79%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>23,63%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>35,04%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>25,67%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>26,58%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>29,54%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>25,22%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>25,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 19,67</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>20,54; 27,52</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>18,24; 24,73</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>19,7; 30,82</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>17,85; 27,16</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>21,14; 26,77</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>32,08; 38,14</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>23,26; 28,15</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>23,82; 29,37</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>25,76; 33,83</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>18,45; 22,58</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>27,2; 31,77</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>21,57; 25,69</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>22,72; 28,6</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>22,45; 28,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_5-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_5-Urba-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1783,7 +1783,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1924,7 +1924,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2228,7 +2228,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2387,7 +2387,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
